--- a/1. Dokumen & Literatur/Report Calculation.xlsx
+++ b/1. Dokumen & Literatur/Report Calculation.xlsx
@@ -1,32 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\performance-tracking\database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\performance-tracking\1. Dokumen &amp; Literatur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F353B4-6F18-474D-A5B8-D53C1A00EA21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047E297B-8310-45E7-99E1-81FE1F5CF375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{05208D3B-E17F-44B5-AAFE-C53CB084AF40}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{05208D3B-E17F-44B5-AAFE-C53CB084AF40}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="timeframe target calc" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
   <si>
     <t>target</t>
   </si>
@@ -104,6 +111,39 @@
   </si>
   <si>
     <t>score dalam 12 bulan</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>capaian</t>
+  </si>
+  <si>
+    <t>kacau</t>
+  </si>
+  <si>
+    <t>keren</t>
+  </si>
+  <si>
+    <t>bolehlah</t>
+  </si>
+  <si>
+    <t>advice notif</t>
+  </si>
+  <si>
+    <t>ada baiknya kamu kontak mentor untuk terus meningkatkan kinerja</t>
+  </si>
+  <si>
+    <t>segera kontak mentor untuk memperbaiki kinerja</t>
+  </si>
+  <si>
+    <t>tidak ada salahnya kamu kontak mentor untuk terus mempertahankan kinerjamu</t>
+  </si>
+  <si>
+    <t>Kontak Calon Mentor</t>
   </si>
 </sst>
 </file>
@@ -127,7 +167,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -137,6 +177,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -168,7 +226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -182,6 +240,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -496,15 +558,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A1C300F-BDCB-4F93-855A-975A21878B92}">
-  <dimension ref="A2:P36"/>
+  <dimension ref="A2:U36"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" topLeftCell="C17" workbookViewId="0">
+      <selection activeCell="Q23" sqref="Q23:Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="15.77734375" customWidth="1"/>
+    <col min="14" max="14" width="11.5546875" customWidth="1"/>
+    <col min="20" max="20" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -900,7 +964,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="2:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
         <v>4</v>
       </c>
@@ -953,7 +1017,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="24" spans="2:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
         <v>5</v>
       </c>
@@ -970,7 +1034,7 @@
         <v>0.55666666666666664</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.3">
       <c r="C25">
         <f>C16/C15</f>
         <v>0.79</v>
@@ -984,7 +1048,7 @@
         <v>0.55666666666666664</v>
       </c>
     </row>
-    <row r="26" spans="2:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
         <v>6</v>
       </c>
@@ -1040,7 +1104,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="2:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
         <v>7</v>
       </c>
@@ -1093,33 +1157,79 @@
         <v>0.95750000000000002</v>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C31" t="s">
+    <row r="31" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C31" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>9</v>
       </c>
       <c r="C32">
-        <v>10.5</v>
+        <v>3</v>
       </c>
       <c r="D32">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="E32">
         <f>(C32/D32)*100</f>
-        <v>52.5</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+      <c r="G32" s="9">
+        <f>1-D32/C32</f>
+        <v>-0.33333333333333326</v>
+      </c>
+      <c r="I32">
+        <v>6</v>
+      </c>
+      <c r="J32">
+        <v>8</v>
+      </c>
+      <c r="K32">
+        <v>7</v>
+      </c>
+      <c r="L32" s="10"/>
+      <c r="M32" t="s">
+        <v>31</v>
+      </c>
+      <c r="N32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>10</v>
       </c>
@@ -1127,14 +1237,40 @@
         <v>10</v>
       </c>
       <c r="D33">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E33">
         <f>(D33/C33)*100</f>
-        <v>110.00000000000001</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="G33" s="9">
+        <f>D33/C33-1</f>
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>5</v>
+      </c>
+      <c r="L33" s="11"/>
+      <c r="M33" t="s">
+        <v>29</v>
+      </c>
+      <c r="N33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="K34">
+        <v>10</v>
+      </c>
+      <c r="L34" s="12"/>
+      <c r="M34" t="s">
+        <v>30</v>
+      </c>
+      <c r="N34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D36" t="s">
         <v>14</v>
       </c>
@@ -1149,7 +1285,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C493CA92-4DE2-47F6-B7B2-586C99A2A9A9}">
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>

--- a/1. Dokumen & Literatur/Report Calculation.xlsx
+++ b/1. Dokumen & Literatur/Report Calculation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\performance-tracking\1. Dokumen &amp; Literatur\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\performance-tracking\1. Dokumen &amp; Literatur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047E297B-8310-45E7-99E1-81FE1F5CF375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E194A25-8A35-45D4-B46A-CBB36F3FB120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{05208D3B-E17F-44B5-AAFE-C53CB084AF40}"/>
   </bookViews>
@@ -16,24 +16,17 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="timeframe target calc" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
   <si>
     <t>target</t>
   </si>
@@ -144,6 +137,12 @@
   </si>
   <si>
     <t>Kontak Calon Mentor</t>
+  </si>
+  <si>
+    <t>Devisiasi</t>
+  </si>
+  <si>
+    <t>%</t>
   </si>
 </sst>
 </file>
@@ -237,13 +236,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -558,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A1C300F-BDCB-4F93-855A-975A21878B92}">
-  <dimension ref="A2:U36"/>
+  <dimension ref="A2:U42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C17" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23:Q24"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1199,18 +1198,18 @@
         <v>9</v>
       </c>
       <c r="C32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D32">
         <v>4</v>
       </c>
       <c r="E32">
         <f>(C32/D32)*100</f>
-        <v>75</v>
-      </c>
-      <c r="G32" s="9">
+        <v>25</v>
+      </c>
+      <c r="G32" s="8">
         <f>1-D32/C32</f>
-        <v>-0.33333333333333326</v>
+        <v>-3</v>
       </c>
       <c r="I32">
         <v>6</v>
@@ -1221,7 +1220,7 @@
       <c r="K32">
         <v>7</v>
       </c>
-      <c r="L32" s="10"/>
+      <c r="L32" s="9"/>
       <c r="M32" t="s">
         <v>31</v>
       </c>
@@ -1237,20 +1236,20 @@
         <v>10</v>
       </c>
       <c r="D33">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E33">
         <f>(D33/C33)*100</f>
-        <v>100</v>
-      </c>
-      <c r="G33" s="9">
+        <v>0</v>
+      </c>
+      <c r="G33" s="8">
         <f>D33/C33-1</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K33">
         <v>5</v>
       </c>
-      <c r="L33" s="11"/>
+      <c r="L33" s="10"/>
       <c r="M33" t="s">
         <v>29</v>
       </c>
@@ -1262,7 +1261,7 @@
       <c r="K34">
         <v>10</v>
       </c>
-      <c r="L34" s="12"/>
+      <c r="L34" s="11"/>
       <c r="M34" t="s">
         <v>30</v>
       </c>
@@ -1273,6 +1272,64 @@
     <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D36" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C40" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>4</v>
+      </c>
+      <c r="E41">
+        <f>(C41/D41)*100</f>
+        <v>25</v>
+      </c>
+      <c r="F41">
+        <f>E41-100</f>
+        <v>-75</v>
+      </c>
+      <c r="G41" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42">
+        <v>10</v>
+      </c>
+      <c r="D42">
+        <v>8</v>
+      </c>
+      <c r="E42">
+        <f>(D42/C42)*100</f>
+        <v>80</v>
+      </c>
+      <c r="F42">
+        <f>E42-100</f>
+        <v>-20</v>
+      </c>
+      <c r="G42" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1300,20 +1357,20 @@
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
